--- a/keywordDrivenFramework-master/keywordDrivenFramework-master/src/test/java/com/companyname/projectname/Data/TestSuite1Data.xlsx
+++ b/keywordDrivenFramework-master/keywordDrivenFramework-master/src/test/java/com/companyname/projectname/Data/TestSuite1Data.xlsx
@@ -1,22 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27106"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bsingh5/git/keywordDrivenFramework/src/test/java/com/companyname/projectname/Data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940"/>
+    <workbookView xWindow="0" yWindow="2865" windowWidth="15615" windowHeight="2280"/>
   </bookViews>
   <sheets>
     <sheet name="TC03" sheetId="1" r:id="rId1"/>
     <sheet name="TC01" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <oleSize ref="A1:H6"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -124,8 +120,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,7 +267,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -306,7 +302,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -514,29 +510,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.1640625" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="20" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="70.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="70.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -586,7 +582,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16">
       <c r="A2" s="6" t="s">
         <v>21</v>
       </c>
@@ -645,19 +641,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
@@ -668,7 +664,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="6" t="s">
         <v>23</v>
       </c>
@@ -685,12 +681,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/keywordDrivenFramework-master/keywordDrivenFramework-master/src/test/java/com/companyname/projectname/Data/TestSuite1Data.xlsx
+++ b/keywordDrivenFramework-master/keywordDrivenFramework-master/src/test/java/com/companyname/projectname/Data/TestSuite1Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2865" windowWidth="15615" windowHeight="2280"/>
+    <workbookView xWindow="0" yWindow="2865" windowWidth="15270" windowHeight="6135"/>
   </bookViews>
   <sheets>
     <sheet name="TC03" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
-  <oleSize ref="A1:H6"/>
+  <oleSize ref="A1:H19"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
